--- a/Codes_and_Quantities.xlsx
+++ b/Codes_and_Quantities.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzh235\Box\Penn State\Master's\Primate genome project\Qualitative Data Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTSS\Box\Penn State\Master's\Github Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DDF267-9E2F-4906-8C1E-D18F2967E177}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2375FCF-80A0-4283-A659-7CFFC74D78BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="7980" xr2:uid="{FAABF45A-CCA2-498D-B423-7B726FAAD79A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{FAABF45A-CCA2-498D-B423-7B726FAAD79A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>ACCESS</t>
   </si>
@@ -70,6 +77,9 @@
   </si>
   <si>
     <t>MAX</t>
+  </si>
+  <si>
+    <t>Total_Mention</t>
   </si>
 </sst>
 </file>
@@ -424,13 +434,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAA892A-1687-4530-81FE-D4381E5BE1D2}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -438,7 +448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -446,7 +456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -454,7 +464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -462,7 +472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -470,7 +480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -478,7 +488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -486,7 +496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -494,7 +504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -502,7 +512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -510,7 +520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -518,7 +528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -526,7 +536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -534,7 +544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -546,4 +556,134 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F2C0A2-31C7-4BEB-ABC4-E86C8D303342}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="14.734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>